--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H2">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I2">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J2">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>55.09228262126499</v>
+        <v>64.40760879044299</v>
       </c>
       <c r="R2">
-        <v>55.09228262126499</v>
+        <v>257.630435161772</v>
       </c>
       <c r="S2">
-        <v>1.909963658274729E-05</v>
+        <v>1.913864831993362E-05</v>
       </c>
       <c r="T2">
-        <v>1.909963658274729E-05</v>
+        <v>8.71898766363874E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H3">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I3">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J3">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>3960.689243615547</v>
+        <v>4456.267515410407</v>
       </c>
       <c r="R3">
-        <v>3960.689243615547</v>
+        <v>26737.60509246245</v>
       </c>
       <c r="S3">
-        <v>0.00137310929173688</v>
+        <v>0.001324174866893045</v>
       </c>
       <c r="T3">
-        <v>0.00137310929173688</v>
+        <v>0.0009048808569920711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H4">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I4">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J4">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>5548.288608610975</v>
+        <v>5944.723652241168</v>
       </c>
       <c r="R4">
-        <v>5548.288608610975</v>
+        <v>35668.341913447</v>
       </c>
       <c r="S4">
-        <v>0.001923505272220522</v>
+        <v>0.001766467929427574</v>
       </c>
       <c r="T4">
-        <v>0.001923505272220522</v>
+        <v>0.001207123812567076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H5">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I5">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J5">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>4208.028895965309</v>
+        <v>4581.00880263992</v>
       </c>
       <c r="R5">
-        <v>4208.028895965309</v>
+        <v>27486.05281583952</v>
       </c>
       <c r="S5">
-        <v>0.001458858098059893</v>
+        <v>0.001361241599723153</v>
       </c>
       <c r="T5">
-        <v>0.001458858098059893</v>
+        <v>0.0009302105757533872</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H6">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I6">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J6">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>149.3406138513751</v>
+        <v>199.4936473344977</v>
       </c>
       <c r="R6">
-        <v>149.3406138513751</v>
+        <v>1196.961884006986</v>
       </c>
       <c r="S6">
-        <v>5.17740655476977E-05</v>
+        <v>5.927931233743221E-05</v>
       </c>
       <c r="T6">
-        <v>5.17740655476977E-05</v>
+        <v>4.05087849731322E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H7">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I7">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J7">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>902.3142778553949</v>
+        <v>955.8306657981523</v>
       </c>
       <c r="R7">
-        <v>902.3142778553949</v>
+        <v>3823.322663192609</v>
       </c>
       <c r="S7">
-        <v>0.0003128183108501304</v>
+        <v>0.0002840240044563378</v>
       </c>
       <c r="T7">
-        <v>0.0003128183108501304</v>
+        <v>0.0001293927214521633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H8">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>7.421407548879018</v>
+        <v>9.111178611320666</v>
       </c>
       <c r="R8">
-        <v>7.421407548879018</v>
+        <v>54.66707166792399</v>
       </c>
       <c r="S8">
-        <v>2.572886443832592E-06</v>
+        <v>2.707376449722222E-06</v>
       </c>
       <c r="T8">
-        <v>2.572886443832592E-06</v>
+        <v>1.850097886069207E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H9">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>533.5391392911108</v>
+        <v>630.3890182421276</v>
       </c>
       <c r="R9">
-        <v>533.5391392911108</v>
+        <v>5673.501164179149</v>
       </c>
       <c r="S9">
-        <v>0.0001849697122405784</v>
+        <v>0.0001873193858840248</v>
       </c>
       <c r="T9">
-        <v>0.0001849697122405784</v>
+        <v>0.0001920083185399134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H10">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>747.402521808226</v>
+        <v>840.9478322155741</v>
       </c>
       <c r="R10">
-        <v>747.402521808226</v>
+        <v>7568.530489940167</v>
       </c>
       <c r="S10">
-        <v>0.0002591128170473724</v>
+        <v>0.0002498867000100861</v>
       </c>
       <c r="T10">
-        <v>0.0002591128170473724</v>
+        <v>0.0002561418022378661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H11">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>566.8579323370376</v>
+        <v>648.0350723263895</v>
       </c>
       <c r="R11">
-        <v>566.8579323370376</v>
+        <v>5832.315650937506</v>
       </c>
       <c r="S11">
-        <v>0.0001965208190067979</v>
+        <v>0.000192562890955794</v>
       </c>
       <c r="T11">
-        <v>0.0001965208190067979</v>
+        <v>0.0001973830777370702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H12">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>20.11747392298143</v>
+        <v>28.22061378807356</v>
       </c>
       <c r="R12">
-        <v>20.11747392298143</v>
+        <v>253.985524092662</v>
       </c>
       <c r="S12">
-        <v>6.974414974476478E-06</v>
+        <v>8.385723562877434E-06</v>
       </c>
       <c r="T12">
-        <v>6.974414974476478E-06</v>
+        <v>8.595632926351298E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H13">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>121.5495469514744</v>
+        <v>135.2129675641172</v>
       </c>
       <c r="R13">
-        <v>121.5495469514744</v>
+        <v>811.2778053847029</v>
       </c>
       <c r="S13">
-        <v>4.213933536808381E-05</v>
+        <v>4.01783808326729E-05</v>
       </c>
       <c r="T13">
-        <v>4.213933536808381E-05</v>
+        <v>2.745607743313212E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H14">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I14">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J14">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>3796.773300969181</v>
+        <v>5438.668456260416</v>
       </c>
       <c r="R14">
-        <v>3796.773300969181</v>
+        <v>32632.0107375625</v>
       </c>
       <c r="S14">
-        <v>0.001316282186637851</v>
+        <v>0.001616094198617872</v>
       </c>
       <c r="T14">
-        <v>0.001316282186637851</v>
+        <v>0.001104365246605584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H15">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I15">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J15">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>272957.2720189107</v>
+        <v>376293.4538926214</v>
       </c>
       <c r="R15">
-        <v>272957.2720189107</v>
+        <v>3386641.085033593</v>
       </c>
       <c r="S15">
-        <v>0.09463003618889777</v>
+        <v>0.1118151754798985</v>
       </c>
       <c r="T15">
-        <v>0.09463003618889777</v>
+        <v>0.1146141053677865</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H16">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I16">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J16">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>382369.2367234485</v>
+        <v>501980.769288033</v>
       </c>
       <c r="R16">
-        <v>382369.2367234485</v>
+        <v>4517826.923592297</v>
       </c>
       <c r="S16">
-        <v>0.1325614607774741</v>
+        <v>0.1491630195126721</v>
       </c>
       <c r="T16">
-        <v>0.1325614607774741</v>
+        <v>0.1528968314187017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H17">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I17">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J17">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>290003.0821329773</v>
+        <v>386826.7824354618</v>
       </c>
       <c r="R17">
-        <v>290003.0821329773</v>
+        <v>3481441.041919156</v>
       </c>
       <c r="S17">
-        <v>0.1005395531474768</v>
+        <v>0.1149451421780203</v>
       </c>
       <c r="T17">
-        <v>0.1005395531474768</v>
+        <v>0.117822420620135</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H18">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I18">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J18">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>10292.0486943554</v>
+        <v>16845.52225052431</v>
       </c>
       <c r="R18">
-        <v>10292.0486943554</v>
+        <v>151609.7002547188</v>
       </c>
       <c r="S18">
-        <v>0.003568093032294355</v>
+        <v>0.00500562794012996</v>
       </c>
       <c r="T18">
-        <v>0.003568093032294355</v>
+        <v>0.005130927583842413</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H19">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I19">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J19">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>62184.44029259191</v>
+        <v>80711.67660511198</v>
       </c>
       <c r="R19">
-        <v>62184.44029259191</v>
+        <v>484270.0596306719</v>
       </c>
       <c r="S19">
-        <v>0.02155837722054403</v>
+        <v>0.0239833836850447</v>
       </c>
       <c r="T19">
-        <v>0.02155837722054403</v>
+        <v>0.0163891532191766</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H20">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I20">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J20">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>6755.722872203016</v>
+        <v>7725.816916459724</v>
       </c>
       <c r="R20">
-        <v>6755.722872203016</v>
+        <v>46354.90149875834</v>
       </c>
       <c r="S20">
-        <v>0.00234210393132316</v>
+        <v>0.002295717784359925</v>
       </c>
       <c r="T20">
-        <v>0.00234210393132316</v>
+        <v>0.001568789083724044</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H21">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I21">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J21">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>485681.7986055636</v>
+        <v>534537.8845975144</v>
       </c>
       <c r="R21">
-        <v>485681.7986055636</v>
+        <v>4810840.961377629</v>
       </c>
       <c r="S21">
-        <v>0.1683783173769018</v>
+        <v>0.1588373296123842</v>
       </c>
       <c r="T21">
-        <v>0.1683783173769018</v>
+        <v>0.1628133064621843</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H22">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I22">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J22">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>680362.0846943945</v>
+        <v>713081.0694369073</v>
       </c>
       <c r="R22">
-        <v>680362.0846943945</v>
+        <v>6417729.624932165</v>
       </c>
       <c r="S22">
-        <v>0.2358709413381154</v>
+        <v>0.2118912356451305</v>
       </c>
       <c r="T22">
-        <v>0.2358709413381154</v>
+        <v>0.2171952447823811</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H23">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I23">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J23">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>516011.9658645448</v>
+        <v>549500.8426261895</v>
       </c>
       <c r="R23">
-        <v>516011.9658645448</v>
+        <v>4945507.583635706</v>
       </c>
       <c r="S23">
-        <v>0.1788933141165155</v>
+        <v>0.1632835557169502</v>
       </c>
       <c r="T23">
-        <v>0.1788933141165155</v>
+        <v>0.167370829401719</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H24">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I24">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J24">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>18312.97874659395</v>
+        <v>23929.64782030238</v>
       </c>
       <c r="R24">
-        <v>18312.97874659395</v>
+        <v>215366.8303827214</v>
       </c>
       <c r="S24">
-        <v>0.006348824593310857</v>
+        <v>0.007110667864455637</v>
       </c>
       <c r="T24">
-        <v>0.006348824593310857</v>
+        <v>0.007288660348241947</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H25">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I25">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J25">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>110646.8077703162</v>
+        <v>114653.7321564106</v>
       </c>
       <c r="R25">
-        <v>110646.8077703162</v>
+        <v>687922.3929384634</v>
       </c>
       <c r="S25">
-        <v>0.03835952545263433</v>
+        <v>0.03406922721582246</v>
       </c>
       <c r="T25">
-        <v>0.03835952545263433</v>
+        <v>0.02328135980442307</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H26">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I26">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J26">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>50.70191987961816</v>
+        <v>64.10480203008532</v>
       </c>
       <c r="R26">
-        <v>50.70191987961816</v>
+        <v>384.6288121805119</v>
       </c>
       <c r="S26">
-        <v>1.757756617937792E-05</v>
+        <v>1.904866963256705E-05</v>
       </c>
       <c r="T26">
-        <v>1.757756617937792E-05</v>
+        <v>1.301699415434408E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H27">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I27">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J27">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>3645.057694892983</v>
+        <v>4435.316761998354</v>
       </c>
       <c r="R27">
-        <v>3645.057694892983</v>
+        <v>39917.85085798519</v>
       </c>
       <c r="S27">
-        <v>0.001263684748265092</v>
+        <v>0.001317949374142716</v>
       </c>
       <c r="T27">
-        <v>0.001263684748265092</v>
+        <v>0.001350939957739076</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H28">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I28">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J28">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>5106.139573788685</v>
+        <v>5916.775052003367</v>
       </c>
       <c r="R28">
-        <v>5106.139573788685</v>
+        <v>53250.97546803029</v>
       </c>
       <c r="S28">
-        <v>0.001770219086230135</v>
+        <v>0.001758163034384412</v>
       </c>
       <c r="T28">
-        <v>0.001770219086230135</v>
+        <v>0.001802172937723543</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H29">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I29">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J29">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>3872.686586632708</v>
+        <v>4559.471588935703</v>
       </c>
       <c r="R29">
-        <v>3872.686586632708</v>
+        <v>41035.24430042133</v>
       </c>
       <c r="S29">
-        <v>0.001342600140786587</v>
+        <v>0.001354841840958356</v>
       </c>
       <c r="T29">
-        <v>0.001342600140786587</v>
+        <v>0.0013887559076827</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H30">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I30">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J30">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>137.4395011061452</v>
+        <v>198.5557453350952</v>
       </c>
       <c r="R30">
-        <v>137.4395011061452</v>
+        <v>1787.001708015856</v>
       </c>
       <c r="S30">
-        <v>4.764813506253652E-05</v>
+        <v>5.900061581597725E-05</v>
       </c>
       <c r="T30">
-        <v>4.764813506253652E-05</v>
+        <v>6.047750467567253E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H31">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I31">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J31">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>830.4078910028886</v>
+        <v>951.3369112123772</v>
       </c>
       <c r="R31">
-        <v>830.4078910028886</v>
+        <v>5708.021467274264</v>
       </c>
       <c r="S31">
-        <v>0.0002878894861306551</v>
+        <v>0.0002826886903487598</v>
       </c>
       <c r="T31">
-        <v>0.0002878894861306551</v>
+        <v>0.0001931765892709798</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H32">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I32">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J32">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>54.37330945661289</v>
+        <v>76.213145399922</v>
       </c>
       <c r="R32">
-        <v>54.37330945661289</v>
+        <v>304.852581599688</v>
       </c>
       <c r="S32">
-        <v>1.885037978117301E-05</v>
+        <v>2.264665021039421E-05</v>
       </c>
       <c r="T32">
-        <v>1.885037978117301E-05</v>
+        <v>1.031712692068808E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H33">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I33">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J33">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>3909.00089192277</v>
+        <v>5273.075192062049</v>
       </c>
       <c r="R33">
-        <v>3909.00089192277</v>
+        <v>31638.45115237229</v>
       </c>
       <c r="S33">
-        <v>0.001355189745006896</v>
+        <v>0.001566888346900044</v>
       </c>
       <c r="T33">
-        <v>0.001355189745006896</v>
+        <v>0.001070740206299598</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H34">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I34">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J34">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>5475.881541240771</v>
+        <v>7034.356601325009</v>
       </c>
       <c r="R34">
-        <v>5475.881541240771</v>
+        <v>42206.13960795006</v>
       </c>
       <c r="S34">
-        <v>0.001898402869361295</v>
+        <v>0.002090251131474072</v>
       </c>
       <c r="T34">
-        <v>0.001898402869361295</v>
+        <v>0.001428382521422435</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H35">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I35">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J35">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>4153.112677062593</v>
+        <v>5420.680824991662</v>
       </c>
       <c r="R35">
-        <v>4153.112677062593</v>
+        <v>32524.08494994997</v>
       </c>
       <c r="S35">
-        <v>0.001439819500027006</v>
+        <v>0.001610749194270926</v>
       </c>
       <c r="T35">
-        <v>0.001439819500027006</v>
+        <v>0.001100712713820818</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H36">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I36">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J36">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>147.3916676715636</v>
+        <v>236.059661834874</v>
       </c>
       <c r="R36">
-        <v>147.3916676715636</v>
+        <v>1416.357971009244</v>
       </c>
       <c r="S36">
-        <v>5.109839625278696E-05</v>
+        <v>7.014486231090271E-05</v>
       </c>
       <c r="T36">
-        <v>5.109839625278696E-05</v>
+        <v>4.793380746638747E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H37">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I37">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J37">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>890.5387673665617</v>
+        <v>1131.028815977221</v>
       </c>
       <c r="R37">
-        <v>890.5387673665617</v>
+        <v>4524.115263908886</v>
       </c>
       <c r="S37">
-        <v>0.0003087359247116001</v>
+        <v>0.0003360839372119481</v>
       </c>
       <c r="T37">
-        <v>0.0003087359247116001</v>
+        <v>0.0001531096477406967</v>
       </c>
     </row>
   </sheetData>
